--- a/src/main/java/org/example/FilesData/ma.xlsx
+++ b/src/main/java/org/example/FilesData/ma.xlsx
@@ -843,25 +843,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A162"/>
+  <dimension ref="A2:A163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -1662,6 +1655,11 @@
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
